--- a/Software/MPLAB XC8/PWM_period.xlsx
+++ b/Software/MPLAB XC8/PWM_period.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ciro_\Documents\smart_motor_driver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ciro_\Documents\GitHub\smart_motor_driver\Software\MPLAB XC8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8A6004-375C-435E-836D-3D53F7F9C172}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52F7DB9-5C24-43E8-8DBB-85C17C5337ED}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{6E79FCFF-17F5-497C-BA23-A9BA97C98DCC}"/>
   </bookViews>
@@ -499,7 +499,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D8" sqref="D8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,7 +538,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>50000</v>
+        <v>7810</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>0</v>
@@ -554,7 +554,7 @@
       </c>
       <c r="E5" s="1">
         <f>B4^-1</f>
-        <v>2.0000000000000002E-5</v>
+        <v>1.2804097311139564E-4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -563,7 +563,7 @@
       </c>
       <c r="E6" s="2">
         <f>(E5/(4*E4*B3))-1</f>
-        <v>39.000000000000007</v>
+        <v>255.08194622279126</v>
       </c>
     </row>
   </sheetData>
